--- a/analysis/体检指标与血糖关系.xlsx
+++ b/analysis/体检指标与血糖关系.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.PC-20170906WOVI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganlu\Desktop\tianchi\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -606,20 +606,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D45"/>
+  <dimension ref="A4:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -717,7 +718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -725,7 +726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -733,7 +734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -741,7 +742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -749,7 +750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -757,7 +758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -765,7 +766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -773,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -781,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -789,7 +790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -797,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -805,142 +806,142 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D28:D44"/>
+    <mergeCell ref="C28:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
